--- a/Data/Bystrategi_Grenland/Trafikk/byindeks_tallmateriale_955.xlsx
+++ b/Data/Bystrategi_Grenland/Trafikk/byindeks_tallmateriale_955.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programmering\R\byindeks\data_indexpoints_tidy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/kjell-tore_haustveit_telemarkfylke_no/Documents/GitHub/Telemark/Data/Bystrategi_Grenland/Trafikk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E861D5C-4E08-4DEE-812B-DD869179EDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{6E861D5C-4E08-4DEE-812B-DD869179EDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F3ABE7A-A521-4657-83E7-5E4F10438760}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30012" yWindow="276" windowWidth="27084" windowHeight="15828" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="punkt_adt" sheetId="1" r:id="rId1"/>
@@ -1788,9 +1788,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -3426,9 +3426,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>-1.7629999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>7.4539999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>3.605</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>-5.15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>-12.69</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>127</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>14.96</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>-5.68</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>-10.94</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>-6.944</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>-0.91</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>-4.87</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>7.12</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>1.5629999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>-1.6839999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>-5.1479999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>142</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>-6.08</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>-7.569</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>9.7309999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>11.058</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>-10.53</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>12.95</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>-3.0619999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>-0.76</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>4.2910000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>-8.08</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>4.63</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>-18.41</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>27.53</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>-1.242</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>-2.19</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>-12.95</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>-4.78</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>19.010000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>146</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>-7.2210000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>146</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>-4.2409999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>-0.84799999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>146</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>-18.11</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>146</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>16.54</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>146</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>146</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>11.71</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>146</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>123</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>1.5920000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>123</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>-1.611</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>123</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>-3.302</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>123</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>123</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>123</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>123</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>-3.68</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>123</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>123</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>118</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>118</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>-0.38900000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>0.89200000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>118</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>-12.01</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>118</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>-5.82</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>118</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>118</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>-1.97</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>118</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>9.82</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>118</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>-1.96</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>64</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>64</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>64</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>64</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>64</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>64</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>64</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>64</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>24.22</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>64</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>-17.71</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>-1.873</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>56</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>-1.3560000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>56</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>2.2109999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>56</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>-9.57</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>56</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>56</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>56</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>-3.75</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>56</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>56</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>43</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>43</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>43</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>43</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>-9.32</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>43</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>43</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>43</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>-2.97</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>43</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>-0.69</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>43</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>34</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>34</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>-0.46600000000000003</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>34</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>2.1360000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>34</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>-7.79</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>34</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>5.83</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>34</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>34</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>34</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>34</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>51</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>51</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>-5.4989999999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>51</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>-2.2410000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>51</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>-6.26</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>51</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>51</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>51</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>-4.5599999999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>51</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>51</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>82</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>-4.3689999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>82</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>8.7230000000000008</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>82</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>82</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>82</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>82</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>8.41</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>82</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>-0.69</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>82</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>82</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>132</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>132</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>-4.5919999999999996</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>132</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>132</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>132</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>14.94</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>132</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>132</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>132</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>-14.43</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>132</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>30</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>-1.1240000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>30</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>2.8450000000000002</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>30</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>30</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>-5.82</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>30</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>30</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>30</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>-1.61</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>30</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>114</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>-5.86</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>114</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>-3.69</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>114</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>-9.7919999999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>114</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>-9.43</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>114</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>114</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>-7.4</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>114</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>-7.96</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>114</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>11.17</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>114</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>109</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>1.9630000000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>109</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>-3.694</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>109</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>109</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>109</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>109</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>109</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>-5.76</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>109</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>109</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>74</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>74</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>2.0590000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>74</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>10.234</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>74</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>-11.3</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>74</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>-5.4</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>74</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>-11.07</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>74</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>74</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>74</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>69</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>-3.3410000000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>69</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>-8.3309999999999995</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>69</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>5.9189999999999996</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>69</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>69</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>-3.41</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>69</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>69</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>69</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>-8.98</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>69</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>19.670000000000002</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>60</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>-3.8849999999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>60</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>-1.075</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>60</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>4.1040000000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>60</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>-6.86</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>60</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>60</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>60</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>-0.41</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>60</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>60</v>
       </c>
@@ -11854,7 +11854,7 @@
         <v>-4.1900000000000004</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>104</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>6.8280000000000003</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>104</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>3.9289999999999998</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>104</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>-0.46</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>104</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>-3.47</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>104</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>-10.17</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>104</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>104</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>104</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>27.84</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>104</v>
       </c>
@@ -12250,7 +12250,7 @@
         <v>-14.11</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>38</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>38</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>38</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>38</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>38</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>38</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>9.82</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>38</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>38</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>38</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>94</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>94</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>-5.5140000000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>94</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>1.363</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>94</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>94</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>94</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>94</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>94</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>94</v>
       </c>
@@ -12784,7 +12784,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>99</v>
       </c>
@@ -12798,7 +12798,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>99</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>99</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>-1.5820000000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>99</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>-1.52</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>99</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>99</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>99</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>-2.2400000000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>99</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>14.94</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>99</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>-5.6</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>151</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>-5.9169999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>151</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>-12.156000000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>151</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>151</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>151</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>151</v>
       </c>
@@ -13324,7 +13324,7 @@
         <v>45.26</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>151</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>151</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>151</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>47</v>
       </c>
@@ -13482,7 +13482,7 @@
         <v>0.35099999999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>47</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>-2.492</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>47</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>47</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>47</v>
       </c>
@@ -13598,7 +13598,7 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>47</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>47</v>
       </c>
@@ -13695,7 +13695,7 @@
         <v>-2.78</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>47</v>
       </c>
@@ -13745,7 +13745,7 @@
         <v>-2.34</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>47</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>90</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>-7.6459999999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>90</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>3.669</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>90</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>90</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>-3.66</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>90</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>90</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>90</v>
       </c>
@@ -14103,7 +14103,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>90</v>
       </c>
@@ -14153,7 +14153,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>90</v>
       </c>
@@ -14212,11 +14212,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>169</v>
       </c>
@@ -14260,7 +14265,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -14304,7 +14309,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -14348,7 +14353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -14392,7 +14397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -14436,7 +14441,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -14480,7 +14485,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -14524,7 +14529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -14568,7 +14573,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -14612,7 +14617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -14656,7 +14661,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -14700,7 +14705,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -14744,7 +14749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -14788,7 +14793,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2016</v>
       </c>
@@ -14832,7 +14837,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -14876,7 +14881,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -14920,7 +14925,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -14964,7 +14969,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -15019,9 +15024,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>169</v>
       </c>
@@ -15065,7 +15070,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -15109,7 +15114,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -15153,7 +15158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -15197,7 +15202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -15241,7 +15246,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -15285,7 +15290,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -15329,7 +15334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -15373,7 +15378,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -15417,7 +15422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -15461,7 +15466,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -15505,7 +15510,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -15549,7 +15554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -15593,7 +15598,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2016</v>
       </c>
@@ -15637,7 +15642,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -15681,7 +15686,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -15725,7 +15730,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -15769,7 +15774,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -15822,14 +15827,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B97" sqref="B87:B97"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="20.7265625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -15870,7 +15878,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.97812429436791959</v>
       </c>
@@ -15911,7 +15919,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.97781413021468899</v>
       </c>
@@ -15952,7 +15960,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.97678282233189939</v>
       </c>
@@ -15993,7 +16001,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.96729177295915625</v>
       </c>
@@ -16034,7 +16042,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.97224214546047705</v>
       </c>
@@ -16075,7 +16083,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.97081832966370962</v>
       </c>
@@ -16116,7 +16124,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.97019144259973034</v>
       </c>
@@ -16157,7 +16165,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.97013479952163562</v>
       </c>
@@ -16198,7 +16206,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.9677611643931685</v>
       </c>
@@ -16239,7 +16247,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.96594178093863081</v>
       </c>
@@ -16280,7 +16288,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.96659453530252504</v>
       </c>
@@ -16321,7 +16329,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.96628337316753043</v>
       </c>
@@ -16362,7 +16370,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.96512844699428724</v>
       </c>
@@ -16403,7 +16411,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.96572049921620173</v>
       </c>
@@ -16444,7 +16452,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.96750091559335927</v>
       </c>
@@ -16485,7 +16493,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.97089367306456531</v>
       </c>
@@ -16526,7 +16534,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.96767300089649144</v>
       </c>
@@ -16567,7 +16575,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.97311709516564693</v>
       </c>
@@ -16608,7 +16616,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.97338719834222942</v>
       </c>
@@ -16649,7 +16657,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.97933447004191787</v>
       </c>
@@ -16690,7 +16698,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.97607050702096587</v>
       </c>
@@ -16731,7 +16739,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.96823720002115077</v>
       </c>
@@ -16772,7 +16780,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.9687510039035665</v>
       </c>
@@ -16813,7 +16821,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.96791801516264786</v>
       </c>
@@ -16854,7 +16862,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.96786337009169243</v>
       </c>
@@ -16895,7 +16903,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.97089451620860823</v>
       </c>
@@ -16936,7 +16944,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.97439115160422085</v>
       </c>
@@ -16977,7 +16985,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.96288746885496534</v>
       </c>
@@ -17018,7 +17026,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.9450240235115952</v>
       </c>
@@ -17059,7 +17067,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.94401201495304099</v>
       </c>
@@ -17100,7 +17108,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.94611248304152984</v>
       </c>
@@ -17141,7 +17149,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.949273734624827</v>
       </c>
@@ -17182,7 +17190,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.94963802926017682</v>
       </c>
@@ -17223,7 +17231,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.95278744048553743</v>
       </c>
@@ -17264,7 +17272,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.96620751612294897</v>
       </c>
@@ -17305,7 +17313,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.96092333025613375</v>
       </c>
@@ -17346,7 +17354,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.9555559447047185</v>
       </c>
@@ -17387,7 +17395,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.94194553401764813</v>
       </c>
@@ -17428,7 +17436,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.92577977351233742</v>
       </c>
@@ -17469,7 +17477,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.94021847348820087</v>
       </c>
@@ -17510,7 +17518,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.95066452738112672</v>
       </c>
@@ -17551,7 +17559,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.94830614905830146</v>
       </c>
@@ -17592,7 +17600,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.94963862420813594</v>
       </c>
@@ -17633,7 +17641,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.95893373938507653</v>
       </c>
@@ -17674,7 +17682,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.96039654835608013</v>
       </c>
@@ -17715,7 +17723,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.96132009981831623</v>
       </c>
@@ -17756,7 +17764,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.96176430731728646</v>
       </c>
@@ -17797,7 +17805,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.96756995315229566</v>
       </c>
@@ -17838,7 +17846,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.97039666632637878</v>
       </c>
@@ -17879,7 +17887,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.94674389333783104</v>
       </c>
@@ -17920,7 +17928,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.94914230010706635</v>
       </c>
@@ -17961,7 +17969,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.95903951381917174</v>
       </c>
@@ -18002,7 +18010,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.96654300913524449</v>
       </c>
@@ -18043,7 +18051,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.97944585353292035</v>
       </c>
@@ -18084,7 +18092,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.98047733181323926</v>
       </c>
@@ -18125,7 +18133,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.97579739478822058</v>
       </c>
@@ -18166,7 +18174,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.97526138639261761</v>
       </c>
@@ -18207,7 +18215,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.97434506266151877</v>
       </c>
@@ -18248,7 +18256,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.97421501095114982</v>
       </c>
@@ -18289,7 +18297,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.97436982132370964</v>
       </c>
@@ -18330,7 +18338,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.9789093531475368</v>
       </c>
@@ -18371,7 +18379,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.98831604191219813</v>
       </c>
@@ -18412,7 +18420,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.99219616660496301</v>
       </c>
@@ -18453,7 +18461,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.99339607626943394</v>
       </c>
@@ -18494,7 +18502,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.99227991158137463</v>
       </c>
@@ -18535,7 +18543,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.99195676542779987</v>
       </c>
@@ -18576,7 +18584,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.99431672441633323</v>
       </c>
@@ -18617,7 +18625,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1.0051335644266619</v>
       </c>
@@ -18658,7 +18666,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1.007799370964078</v>
       </c>
@@ -18699,7 +18707,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1.0083473973089181</v>
       </c>
@@ -18740,7 +18748,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1.0093351061532929</v>
       </c>
@@ -18781,7 +18789,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1.009887059208622</v>
       </c>
@@ -18822,7 +18830,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1.0080134985934359</v>
       </c>
@@ -18863,7 +18871,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1.006181546993812</v>
       </c>
@@ -18904,7 +18912,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1.004408271484756</v>
       </c>
@@ -18945,7 +18953,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0.99909152473051888</v>
       </c>
@@ -18986,7 +18994,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1.004723146186183</v>
       </c>
@@ -19027,7 +19035,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1.004927437790736</v>
       </c>
@@ -19068,7 +19076,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1.001676711795221</v>
       </c>
@@ -19109,7 +19117,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1.0033673617016949</v>
       </c>
@@ -19150,7 +19158,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1.00657468615007</v>
       </c>
@@ -19191,7 +19199,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1.005938351687363</v>
       </c>
@@ -19232,7 +19240,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.99910322066755408</v>
       </c>
@@ -19273,7 +19281,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1.000662999837229</v>
       </c>
@@ -19314,7 +19322,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1.002058783245539</v>
       </c>
@@ -19355,7 +19363,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1.003401143352874</v>
       </c>
@@ -19396,7 +19404,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1.004430698072561</v>
       </c>
@@ -19437,7 +19445,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1.0090609832779629</v>
       </c>
@@ -19478,7 +19486,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1.008575469129251</v>
       </c>
@@ -19519,7 +19527,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1.0090703704115811</v>
       </c>
@@ -19560,7 +19568,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1.010053583860828</v>
       </c>
@@ -19601,7 +19609,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1.0124584297674051</v>
       </c>
@@ -19642,7 +19650,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1.013672457972371</v>
       </c>
@@ -19683,7 +19691,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1.0240317626881219</v>
       </c>
@@ -19724,7 +19732,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1.026144951053628</v>
       </c>
@@ -19765,7 +19773,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1.0263972038186939</v>
       </c>
@@ -19806,7 +19814,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1.029753355601809</v>
       </c>
@@ -19847,7 +19855,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0.97104686193570122</v>
       </c>
@@ -19888,7 +19896,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>0.97070247254647979</v>
       </c>
@@ -19929,7 +19937,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0.97031503448360568</v>
       </c>
@@ -19970,7 +19978,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0.96903764787887336</v>
       </c>
@@ -20011,7 +20019,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0.96999692962108564</v>
       </c>
@@ -20052,7 +20060,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0.96840881214095165</v>
       </c>
@@ -20093,7 +20101,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>0.97040553957764586</v>
       </c>
@@ -20134,7 +20142,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>0.97066733275838235</v>
       </c>
@@ -20175,7 +20183,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>0.97503314456149415</v>
       </c>
@@ -20216,7 +20224,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>0.96978225919771543</v>
       </c>
@@ -20257,7 +20265,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>0.97043030953884513</v>
       </c>
@@ -20298,7 +20306,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>0.97030345294703058</v>
       </c>
@@ -20339,7 +20347,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>0.96991427855780143</v>
       </c>
@@ -20380,7 +20388,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>0.97162536747064798</v>
       </c>
@@ -20421,7 +20429,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>0.9801703307886801</v>
       </c>
@@ -20462,7 +20470,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>0.97410248182026216</v>
       </c>
@@ -20503,7 +20511,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>0.96824038813242985</v>
       </c>
@@ -20544,7 +20552,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>0.96522503094370693</v>
       </c>
@@ -20585,7 +20593,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>0.9655746339629433</v>
       </c>
@@ -20626,7 +20634,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>0.96857977466999212</v>
       </c>
@@ -20667,7 +20675,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>0.95732734275543085</v>
       </c>
@@ -20708,7 +20716,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>0.95966689628334056</v>
       </c>
@@ -20749,7 +20757,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>0.95934248685743118</v>
       </c>
@@ -20790,7 +20798,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>0.95642860333730007</v>
       </c>
@@ -20831,7 +20839,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0.95429395218641322</v>
       </c>
@@ -20872,7 +20880,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>0.94923033410145818</v>
       </c>
@@ -20913,7 +20921,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>0.94748715555537033</v>
       </c>
@@ -20954,7 +20962,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>0.94431244500038802</v>
       </c>
@@ -20995,7 +21003,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>0.94734370371955279</v>
       </c>
@@ -21036,7 +21044,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>0.94240306187568046</v>
       </c>
@@ -21077,7 +21085,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>0.94345390242550908</v>
       </c>
@@ -21118,7 +21126,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>0.9467944743248593</v>
       </c>
@@ -21159,7 +21167,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>0.95774820149654738</v>
       </c>
@@ -21200,7 +21208,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>0.97497975579952278</v>
       </c>
@@ -21241,7 +21249,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>0.97467990942518923</v>
       </c>
@@ -21282,7 +21290,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>0.97557274557409923</v>
       </c>
@@ -21323,7 +21331,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>0.97103137220521585</v>
       </c>
@@ -21364,7 +21372,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>0.96694480945232719</v>
       </c>
@@ -21405,7 +21413,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>0.95644086771160275</v>
       </c>
@@ -21446,7 +21454,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>0.96533459481905737</v>
       </c>
@@ -21487,7 +21495,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>0.97343174822848022</v>
       </c>
@@ -21528,7 +21536,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>0.97854351133443029</v>
       </c>
@@ -21569,7 +21577,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>0.97972364384907629</v>
       </c>
@@ -21610,7 +21618,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>0.97736910585765946</v>
       </c>
@@ -21651,7 +21659,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>0.97825937389532602</v>
       </c>
@@ -21692,7 +21700,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>0.97837129930552946</v>
       </c>
@@ -21733,7 +21741,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>0.97814597854540131</v>
       </c>
@@ -21774,7 +21782,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>0.98144242336599086</v>
       </c>
@@ -21815,7 +21823,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>0.98467650074412172</v>
       </c>
@@ -21856,7 +21864,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>0.96747100677091535</v>
       </c>
@@ -21897,7 +21905,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>0.97097042878783268</v>
       </c>
@@ -21938,7 +21946,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>0.97605501655462412</v>
       </c>
@@ -21979,7 +21987,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>0.97844599644871644</v>
       </c>
@@ -22020,7 +22028,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>0.98607834967642594</v>
       </c>
@@ -22061,7 +22069,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>0.98739690037611383</v>
       </c>
@@ -22102,7 +22110,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>0.98664838857103976</v>
       </c>
@@ -22143,7 +22151,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>0.98714202434679443</v>
       </c>
@@ -22184,7 +22192,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>0.98717286414737559</v>
       </c>
@@ -22225,7 +22233,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>0.98779403742101768</v>
       </c>
@@ -22266,7 +22274,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>0.9886680970594256</v>
       </c>
@@ -22307,7 +22315,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>0.990166350168458</v>
       </c>
@@ -22348,7 +22356,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>0.99224029720809948</v>
       </c>
@@ -22389,7 +22397,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>0.99402470335373039</v>
       </c>
@@ -22430,7 +22438,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>0.99220159154673271</v>
       </c>
@@ -22471,7 +22479,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>0.99468890001844612</v>
       </c>
@@ -22512,7 +22520,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>0.99456113375762389</v>
       </c>
@@ -22553,7 +22561,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1.003284346850033</v>
       </c>
@@ -22594,7 +22602,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1.0045057013847289</v>
       </c>
@@ -22635,7 +22643,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1.0051054390419709</v>
       </c>
@@ -22676,7 +22684,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1.008596344978222</v>
       </c>
@@ -22717,7 +22725,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1.010228257369455</v>
       </c>
@@ -22758,7 +22766,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1.003815851693727</v>
       </c>
@@ -22799,7 +22807,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1.0036007631051</v>
       </c>
@@ -22840,7 +22848,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1.0032662694519801</v>
       </c>
@@ -22881,7 +22889,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1.002848451396593</v>
       </c>
@@ -22922,7 +22930,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1.002586916430626</v>
       </c>
@@ -22963,7 +22971,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1.004987775523698</v>
       </c>
@@ -23004,7 +23012,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1.005460412264787</v>
       </c>
@@ -23045,7 +23053,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1.0043261638224441</v>
       </c>
@@ -23086,7 +23094,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1.005419348085679</v>
       </c>
@@ -23127,7 +23135,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1.0059798940645659</v>
       </c>
@@ -23168,7 +23176,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1.0070367983249</v>
       </c>
@@ -23209,7 +23217,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1.0089219630910231</v>
       </c>
@@ -23250,7 +23258,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1.0095821794075499</v>
       </c>
@@ -23291,7 +23299,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1.01214231170017</v>
       </c>
@@ -23332,7 +23340,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>0.97312355365382119</v>
       </c>
@@ -23373,7 +23381,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>0.97404318199577355</v>
       </c>
@@ -23414,7 +23422,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>0.97463476968072749</v>
       </c>
@@ -23455,7 +23463,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>0.96836897187056259</v>
       </c>
@@ -23496,7 +23504,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>0.96394898664051987</v>
       </c>
@@ -23537,7 +23545,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>0.96092811161205915</v>
       </c>
@@ -23578,7 +23586,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>0.96078519307451093</v>
       </c>
@@ -23619,7 +23627,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>0.96193722793738445</v>
       </c>
@@ -23660,7 +23668,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>0.96379904806729788</v>
       </c>
@@ -23701,7 +23709,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>0.96429768016750728</v>
       </c>
@@ -23742,7 +23750,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>0.96400342611269729</v>
       </c>
@@ -23783,7 +23791,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>0.9619564101223631</v>
       </c>
@@ -23824,7 +23832,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>0.96008087755798399</v>
       </c>
@@ -23865,7 +23873,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>0.96440953974796872</v>
       </c>
@@ -23906,7 +23914,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>0.96374796026395426</v>
       </c>
@@ -23947,7 +23955,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>0.96313289484284603</v>
       </c>
@@ -23988,7 +23996,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>0.96094316227070864</v>
       </c>
@@ -24029,7 +24037,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>0.95803619946072271</v>
       </c>
@@ -24070,7 +24078,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>0.95919988164164449</v>
       </c>
@@ -24111,7 +24119,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>0.96187743044851104</v>
       </c>
@@ -24152,7 +24160,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>0.96300539647398697</v>
       </c>
@@ -24193,7 +24201,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>0.96536847699127659</v>
       </c>
@@ -24234,7 +24242,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>0.96590538217453703</v>
       </c>
@@ -24275,7 +24283,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>0.96666347833908206</v>
       </c>
@@ -24316,7 +24324,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>0.96633156727591552</v>
       </c>
@@ -24357,7 +24365,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>0.95953447704381545</v>
       </c>
@@ -24398,7 +24406,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>0.95914696722359249</v>
       </c>
@@ -24439,7 +24447,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>0.96574230269096617</v>
       </c>
@@ -24480,7 +24488,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>0.96579508198131547</v>
       </c>
@@ -24521,7 +24529,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>0.96535972404897064</v>
       </c>
@@ -24562,7 +24570,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>0.96647523915565814</v>
       </c>
@@ -24603,7 +24611,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>0.96614396580490458</v>
       </c>
@@ -24644,7 +24652,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>0.96671558459892826</v>
       </c>
@@ -24685,7 +24693,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>0.98057644303345304</v>
       </c>
@@ -24726,7 +24734,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>0.97990023177870933</v>
       </c>
@@ -24767,7 +24775,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>0.9802432859732928</v>
       </c>
@@ -24808,7 +24816,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>0.98075954368860441</v>
       </c>
@@ -24849,7 +24857,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>0.98576266816677716</v>
       </c>
@@ -24890,7 +24898,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>0.97364241413502384</v>
       </c>
@@ -24931,7 +24939,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>0.97987805751693668</v>
       </c>
@@ -24972,7 +24980,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>0.98479914207852681</v>
       </c>
@@ -25013,7 +25021,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>0.9878958150912861</v>
       </c>
@@ -25054,7 +25062,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>0.98975726784841733</v>
       </c>
@@ -25095,7 +25103,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>0.98910171291299398</v>
       </c>
@@ -25136,7 +25144,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>0.99009511853941357</v>
       </c>
@@ -25177,7 +25185,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>0.99018709476768585</v>
       </c>
@@ -25218,7 +25226,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>0.99038168678792715</v>
       </c>
@@ -25259,7 +25267,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>0.99300174934535446</v>
       </c>
@@ -25300,7 +25308,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>0.97519833331998451</v>
       </c>
@@ -25341,7 +25349,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>0.97811365614610912</v>
       </c>
@@ -25382,7 +25390,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>0.9798585919596392</v>
       </c>
@@ -25423,7 +25431,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>0.98113980328787065</v>
       </c>
@@ -25464,7 +25472,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>0.98503244934273648</v>
       </c>
@@ -25505,7 +25513,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>0.98996675111357724</v>
       </c>
@@ -25546,7 +25554,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>0.99003565982928454</v>
       </c>
@@ -25587,7 +25595,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>0.9894678095656797</v>
       </c>
@@ -25628,7 +25636,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>0.98963739530780037</v>
       </c>
@@ -25669,7 +25677,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>0.98954480958390501</v>
       </c>
@@ -25710,7 +25718,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>0.99048830851523439</v>
       </c>
@@ -25751,7 +25759,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>0.99106353236761435</v>
       </c>
@@ -25792,7 +25800,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>0.98498132058745058</v>
       </c>
@@ -25833,7 +25841,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>0.98677306941172205</v>
       </c>
@@ -25874,7 +25882,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>0.98824444105592701</v>
       </c>
@@ -25915,7 +25923,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>0.99138178047428871</v>
       </c>
@@ -25956,7 +25964,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>0.99262612219911883</v>
       </c>
@@ -25997,7 +26005,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1.0028673223138529</v>
       </c>
@@ -26038,7 +26046,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1.0028529697852331</v>
       </c>
@@ -26079,7 +26087,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1.004483709402807</v>
       </c>
@@ -26120,7 +26128,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1.005242001331571</v>
       </c>
@@ -26161,7 +26169,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1.0061430211838369</v>
       </c>
@@ -26202,7 +26210,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1.0078472510636971</v>
       </c>
@@ -26243,7 +26251,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1.008580691854944</v>
       </c>
@@ -26284,7 +26292,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1.0096783945068191</v>
       </c>
